--- a/pq-debug-training/customer_sales_data.xlsx
+++ b/pq-debug-training/customer_sales_data.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="May 2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="April 2024" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,15 +428,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22.8" customWidth="1" min="1" max="1"/>
-    <col width="37.2" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="22.8" customWidth="1" min="6" max="6"/>
-    <col width="21.6" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -782,6 +774,372 @@
       </c>
       <c r="G11" s="2" t="n">
         <v>45431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Product Purchased</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity Purchased</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sale Amount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>john.smith@example.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>555-1234</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Emily Johnson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>emily.johnson@example.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>555-5678</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Smartphone</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>800</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Michael Brown</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>michael.brown@example.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>555-9012</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sarah Davis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sarah.davis@example.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>555-3456</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Smartwatch</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>David Wilson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>david.wilson@example.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>555-7890</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Headphones</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jennifer Martinez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>jennifer.martinez@example.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>555-2345</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>600</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Robert Garcia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>robert.garcia@example.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>555-6789</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Printer</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lisa Rodriguez</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lisa.rodriguez@example.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>555-1234</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>External Hard Drive</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Daniel Hernandez</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>daniel.hernandez@example.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>555-5678</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Maria Lopez</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>maria.lopez@example.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>555-9012</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45401</v>
       </c>
     </row>
   </sheetData>

--- a/pq-debug-training/customer_sales_data.xlsx
+++ b/pq-debug-training/customer_sales_data.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +497,10 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>45413</v>
       </c>
     </row>
@@ -521,10 +528,10 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>45415</v>
       </c>
     </row>
@@ -552,10 +559,10 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>45417</v>
       </c>
     </row>
@@ -583,10 +590,10 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>45419</v>
       </c>
     </row>
@@ -614,10 +621,10 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>45421</v>
       </c>
     </row>
@@ -645,10 +652,10 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>45423</v>
       </c>
     </row>
@@ -676,10 +683,10 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>45425</v>
       </c>
     </row>
@@ -707,10 +714,10 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>45427</v>
       </c>
     </row>
@@ -738,10 +745,10 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>45429</v>
       </c>
     </row>
@@ -769,10 +776,10 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>45431</v>
       </c>
     </row>
@@ -856,10 +863,10 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>45383</v>
       </c>
     </row>
@@ -887,10 +894,10 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>45385</v>
       </c>
     </row>
@@ -918,10 +925,10 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>45387</v>
       </c>
     </row>
@@ -949,10 +956,10 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>45389</v>
       </c>
     </row>
@@ -980,10 +987,10 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>45391</v>
       </c>
     </row>
@@ -1011,10 +1018,10 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>45393</v>
       </c>
     </row>
@@ -1042,10 +1049,10 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>45395</v>
       </c>
     </row>
@@ -1073,10 +1080,10 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>45397</v>
       </c>
     </row>
@@ -1104,10 +1111,10 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>45399</v>
       </c>
     </row>
@@ -1135,10 +1142,10 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>45401</v>
       </c>
     </row>

--- a/pq-debug-training/customer_sales_data.xlsx
+++ b/pq-debug-training/customer_sales_data.xlsx
@@ -58,9 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -494,13 +495,13 @@
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>45413</v>
       </c>
     </row>
@@ -525,13 +526,13 @@
           <t>Smartphone</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>45415</v>
       </c>
     </row>
@@ -556,13 +557,13 @@
           <t>Tablet</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>45417</v>
       </c>
     </row>
@@ -587,13 +588,13 @@
           <t>Smartwatch</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>45419</v>
       </c>
     </row>
@@ -618,13 +619,13 @@
           <t>Headphones</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>45421</v>
       </c>
     </row>
@@ -649,13 +650,13 @@
           <t>Camera</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>45423</v>
       </c>
     </row>
@@ -680,13 +681,13 @@
           <t>Printer</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>45425</v>
       </c>
     </row>
@@ -711,13 +712,13 @@
           <t>External Hard Drive</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>45427</v>
       </c>
     </row>
@@ -742,13 +743,13 @@
           <t>Monitor</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>45429</v>
       </c>
     </row>
@@ -773,13 +774,13 @@
           <t>Keyboard</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>45431</v>
       </c>
     </row>
@@ -860,13 +861,13 @@
           <t>Laptop</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>45383</v>
       </c>
     </row>
@@ -891,13 +892,13 @@
           <t>Smartphone</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>45385</v>
       </c>
     </row>
@@ -922,13 +923,13 @@
           <t>Tablet</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>45387</v>
       </c>
     </row>
@@ -953,13 +954,13 @@
           <t>Smartwatch</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>45389</v>
       </c>
     </row>
@@ -984,13 +985,13 @@
           <t>Headphones</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>45391</v>
       </c>
     </row>
@@ -1015,13 +1016,13 @@
           <t>Camera</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>45393</v>
       </c>
     </row>
@@ -1046,13 +1047,13 @@
           <t>Printer</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>45395</v>
       </c>
     </row>
@@ -1077,13 +1078,13 @@
           <t>External Hard Drive</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>45397</v>
       </c>
     </row>
@@ -1108,13 +1109,13 @@
           <t>Monitor</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>45399</v>
       </c>
     </row>
@@ -1139,13 +1140,13 @@
           <t>Keyboard</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>45401</v>
       </c>
     </row>
